--- a/swing_strategy_vix_sim_20260106.xlsx
+++ b/swing_strategy_vix_sim_20260106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,41 @@
           <t>sector</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>obv</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>obv_ma20</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>obv_slope_20</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ad</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ad_slope_20</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>vol20</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>vol_rs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -556,7 +591,7 @@
         <v>964.1</v>
       </c>
       <c r="G2" t="n">
-        <v>87.16</v>
+        <v>87.28</v>
       </c>
       <c r="H2" t="n">
         <v>971.9400000000001</v>
@@ -595,6 +630,23 @@
         <is>
           <t>Industrials</t>
         </is>
+      </c>
+      <c r="T2" t="n">
+        <v>17903903</v>
+      </c>
+      <c r="U2" t="n">
+        <v>17903903</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>11154091.62</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>787715.15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -623,7 +675,7 @@
         <v>123.82</v>
       </c>
       <c r="G3" t="n">
-        <v>79.68000000000001</v>
+        <v>79.89</v>
       </c>
       <c r="H3" t="n">
         <v>123.82</v>
@@ -662,6 +714,23 @@
         <is>
           <t>Industrials</t>
         </is>
+      </c>
+      <c r="T3" t="n">
+        <v>25343723</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25343723</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>3011152.34</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>1455126.15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -690,7 +759,7 @@
         <v>216.82</v>
       </c>
       <c r="G4" t="n">
-        <v>78.55</v>
+        <v>78.77</v>
       </c>
       <c r="H4" t="n">
         <v>221.48</v>
@@ -729,6 +798,23 @@
         <is>
           <t>Industrials</t>
         </is>
+      </c>
+      <c r="T4" t="n">
+        <v>9291457</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9291457</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>17718503.01</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>750797.85</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -739,63 +825,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>CLS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>358.52</v>
+        <v>293.24</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>353.69 - 354.93</t>
+          <t>282.30 - 290.31</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>346.43</v>
+        <v>265.88</v>
       </c>
       <c r="F5" t="n">
-        <v>346.43</v>
+        <v>265.88</v>
       </c>
       <c r="G5" t="n">
-        <v>75.19</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>346.43</v>
+        <v>265.88</v>
       </c>
       <c r="I5" t="n">
-        <v>430.22</v>
+        <v>351.89</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4</v>
+        <v>1.99</v>
       </c>
       <c r="L5" t="n">
-        <v>0.44</v>
+        <v>2.08</v>
       </c>
       <c r="M5" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="N5" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="O5" t="n">
-        <v>38759382</v>
+        <v>115036621</v>
       </c>
       <c r="P5" t="n">
-        <v>1.01</v>
+        <v>0.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="R5" t="n">
-        <v>21740888064</v>
+        <v>33733339136</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>129842482</v>
+      </c>
+      <c r="U5" t="n">
+        <v>129842482</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>50115872.73</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>2260338.7</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -806,63 +909,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>293.24</v>
+        <v>139.88</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>282.30 - 290.31</t>
+          <t>137.61 - 138.48</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>265.88</v>
+        <v>134.2</v>
       </c>
       <c r="F6" t="n">
-        <v>265.88</v>
+        <v>134.01</v>
       </c>
       <c r="G6" t="n">
-        <v>89.22</v>
+        <v>82.8</v>
       </c>
       <c r="H6" t="n">
-        <v>265.88</v>
+        <v>134.2</v>
       </c>
       <c r="I6" t="n">
-        <v>351.89</v>
+        <v>167.86</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.99</v>
+        <v>1.06</v>
       </c>
       <c r="L6" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="M6" t="n">
-        <v>0.28</v>
+        <v>0.53</v>
       </c>
       <c r="N6" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>115036621</v>
+        <v>1224055508</v>
       </c>
       <c r="P6" t="n">
-        <v>0.74</v>
+        <v>0.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="R6" t="n">
-        <v>33733339136</v>
+        <v>171220893696</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
+      </c>
+      <c r="T6" t="n">
+        <v>353496780</v>
+      </c>
+      <c r="U6" t="n">
+        <v>353496780</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>287106285.26</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>6962788.1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -873,131 +993,157 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>VIK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>139.88</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>137.61 - 138.48</t>
+          <t>71.49 - 71.71</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>134.2</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>134.01</v>
+        <v>69.39</v>
       </c>
       <c r="G7" t="n">
-        <v>82.62</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>134.2</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>167.86</v>
+        <v>86.92</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.06</v>
+        <v>0.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.02</v>
+        <v>0.32</v>
       </c>
       <c r="M7" t="n">
-        <v>0.53</v>
+        <v>0.19</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>86.04000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>1224055508</v>
+        <v>315839182</v>
       </c>
       <c r="P7" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.52</v>
+        <v>-0.19</v>
       </c>
       <c r="R7" t="n">
-        <v>171220893696</v>
+        <v>32130695168</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>72493377</v>
+      </c>
+      <c r="U7" t="n">
+        <v>72493377</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>107430933.33</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>1798454.35</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>347.99</v>
+        <v>221.08</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>342.42 - 344.51</t>
+          <t>216.23 - 218.87</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>334.06</v>
+        <v>208.95</v>
       </c>
       <c r="F8" t="n">
-        <v>334.06</v>
+        <v>208.95</v>
       </c>
       <c r="G8" t="n">
-        <v>82.31</v>
+        <v>77.95</v>
       </c>
       <c r="H8" t="n">
-        <v>334.06</v>
+        <v>208.95</v>
       </c>
       <c r="I8" t="n">
-        <v>417.59</v>
+        <v>265.3</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
       <c r="L8" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="M8" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="N8" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="O8" t="n">
-        <v>29967120</v>
+        <v>1628041540</v>
       </c>
       <c r="P8" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="R8" t="n">
-        <v>10428258304</v>
+        <v>359927447552</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>27051504.75</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1007,197 +1153,248 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>430.06</v>
+        <v>231.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>418.69 - 425.76</t>
+          <t>228.31 - 229.09</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>401.63</v>
+        <v>223.66</v>
       </c>
       <c r="F9" t="n">
-        <v>401.63</v>
+        <v>223.66</v>
       </c>
       <c r="G9" t="n">
-        <v>82.09999999999999</v>
+        <v>77.31</v>
       </c>
       <c r="H9" t="n">
-        <v>401.63</v>
+        <v>223.66</v>
       </c>
       <c r="I9" t="n">
-        <v>516.0700000000001</v>
+        <v>277.68</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0.61</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
-        <v>0.55</v>
+        <v>0.17</v>
       </c>
       <c r="N9" t="n">
-        <v>0.68</v>
+        <v>0.15</v>
       </c>
       <c r="O9" t="n">
-        <v>116947000</v>
+        <v>294189246</v>
       </c>
       <c r="P9" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="R9" t="n">
-        <v>93238484992</v>
+        <v>68160753664</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>88629968</v>
+      </c>
+      <c r="U9" t="n">
+        <v>88629968</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>37739999.64</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>1761164.4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.9</v>
+        <v>188.12</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.55 - 21.68</t>
+          <t>185.05 - 186.24</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.01</v>
+        <v>180.45</v>
       </c>
       <c r="F10" t="n">
-        <v>21.01</v>
+        <v>179.42</v>
       </c>
       <c r="G10" t="n">
-        <v>80.84999999999999</v>
+        <v>73.67</v>
       </c>
       <c r="H10" t="n">
-        <v>21.01</v>
+        <v>180.45</v>
       </c>
       <c r="I10" t="n">
-        <v>26.28</v>
+        <v>225.74</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.69</v>
+        <v>0.65</v>
       </c>
       <c r="L10" t="n">
-        <v>2.65</v>
+        <v>0.67</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.04</v>
+        <v>0.62</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2</v>
+        <v>1.07</v>
       </c>
       <c r="O10" t="n">
-        <v>85877386</v>
+        <v>24305000000</v>
       </c>
       <c r="P10" t="n">
-        <v>0.99</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1907143808</v>
+        <v>4580157423616</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>396312865</v>
+      </c>
+      <c r="U10" t="n">
+        <v>396312865</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>407941000.49</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>162295703.35</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RDDT</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>244.05</v>
+        <v>317.32</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>237.71 - 241.61</t>
+          <t>313.59 - 314.15</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228.19</v>
+        <v>308</v>
       </c>
       <c r="F11" t="n">
-        <v>228.19</v>
+        <v>305.46</v>
       </c>
       <c r="G11" t="n">
-        <v>78.88</v>
+        <v>37.11</v>
       </c>
       <c r="H11" t="n">
-        <v>228.19</v>
+        <v>308</v>
       </c>
       <c r="I11" t="n">
-        <v>292.86</v>
+        <v>380.78</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.45</v>
+        <v>0.33</v>
       </c>
       <c r="L11" t="n">
-        <v>4.17</v>
+        <v>0.35</v>
       </c>
       <c r="M11" t="n">
-        <v>0.68</v>
+        <v>0.16</v>
       </c>
       <c r="N11" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="O11" t="n">
-        <v>137824835</v>
+        <v>5407000000</v>
       </c>
       <c r="P11" t="n">
-        <v>0.96</v>
+        <v>0.61</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.67</v>
+        <v>0.32</v>
       </c>
       <c r="R11" t="n">
-        <v>46246440960</v>
+        <v>3830634250240</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
           <t>Communication Services</t>
         </is>
+      </c>
+      <c r="T11" t="n">
+        <v>-20341969</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-20341969</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>33038326</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>18840616.55</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1208,130 +1405,160 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VIK</t>
+          <t>ATI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>72.43000000000001</v>
+        <v>119.9</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>71.49 - 71.71</t>
+          <t>118.26 - 118.70</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70.06999999999999</v>
+        <v>115.79</v>
       </c>
       <c r="F12" t="n">
-        <v>69.39</v>
+        <v>111.07</v>
       </c>
       <c r="G12" t="n">
-        <v>78.09</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>70.06999999999999</v>
+        <v>115.79</v>
       </c>
       <c r="I12" t="n">
-        <v>86.92</v>
+        <v>143.88</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="L12" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="M12" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>86.04000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="O12" t="n">
-        <v>315839182</v>
+        <v>135863661</v>
       </c>
       <c r="P12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R12" t="n">
+        <v>16526072832</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>8030987</v>
+      </c>
+      <c r="U12" t="n">
+        <v>8030987</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>49361079.44</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>1446409.35</v>
+      </c>
+      <c r="Z12" t="n">
         <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="R12" t="n">
-        <v>32130695168</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>221.08</v>
+        <v>52.9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>216.23 - 218.87</t>
+          <t>50.92 - 52.37</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>208.95</v>
+        <v>47.95</v>
       </c>
       <c r="F13" t="n">
-        <v>208.95</v>
+        <v>47.65</v>
       </c>
       <c r="G13" t="n">
-        <v>77.72</v>
+        <v>83.13</v>
       </c>
       <c r="H13" t="n">
-        <v>208.95</v>
+        <v>47.95</v>
       </c>
       <c r="I13" t="n">
-        <v>265.3</v>
+        <v>63.48</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>0.36</v>
+        <v>1.22</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="O13" t="n">
-        <v>1628041540</v>
+        <v>48802385</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.51</v>
+        <v>-2.34</v>
       </c>
       <c r="R13" t="n">
-        <v>359927447552</v>
+        <v>3797242880</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>8770711</v>
+      </c>
+      <c r="U13" t="n">
+        <v>8770711</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>24224242.31</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="n">
+        <v>2675972.15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1342,63 +1569,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>TPR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>231.4</v>
+        <v>128.53</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>228.31 - 229.09</t>
+          <t>126.91 - 127.24</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>223.66</v>
+        <v>124.48</v>
       </c>
       <c r="F14" t="n">
-        <v>223.66</v>
+        <v>122.2</v>
       </c>
       <c r="G14" t="n">
-        <v>77.06999999999999</v>
+        <v>82.56999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>223.66</v>
+        <v>124.48</v>
       </c>
       <c r="I14" t="n">
-        <v>277.68</v>
+        <v>154.24</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>1.4</v>
+        <v>0.47</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>0.62</v>
       </c>
       <c r="M14" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="N14" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="O14" t="n">
-        <v>294189246</v>
+        <v>204649752</v>
       </c>
       <c r="P14" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.51</v>
+        <v>0.72</v>
       </c>
       <c r="R14" t="n">
-        <v>68160753664</v>
+        <v>26606417920</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>238459466</v>
+      </c>
+      <c r="U14" t="n">
+        <v>238459466</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>156642896.63</v>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="n">
+        <v>2598000.6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1409,197 +1653,248 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VRT</t>
+          <t>DG</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>173.95</v>
+        <v>138.93</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>169.08 - 172.21</t>
+          <t>137.01 - 137.54</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>161.78</v>
+        <v>134.13</v>
       </c>
       <c r="F15" t="n">
-        <v>161.78</v>
+        <v>130.04</v>
       </c>
       <c r="G15" t="n">
-        <v>75.84</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>161.78</v>
+        <v>134.13</v>
       </c>
       <c r="I15" t="n">
-        <v>208.74</v>
+        <v>166.72</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>1.26</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>0.44</v>
       </c>
       <c r="M15" t="n">
-        <v>0.29</v>
+        <v>0.05</v>
       </c>
       <c r="N15" t="n">
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
       <c r="O15" t="n">
-        <v>382338313</v>
+        <v>220118871</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="R15" t="n">
-        <v>66507747328</v>
+        <v>30581112832</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>52525364</v>
+      </c>
+      <c r="U15" t="n">
+        <v>52525364</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>119414414.92</v>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>3955343.3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>EXPE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>188.12</v>
+        <v>287.47</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>185.05 - 186.24</t>
+          <t>283.71 - 284.60</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>180.45</v>
+        <v>278.07</v>
       </c>
       <c r="F16" t="n">
-        <v>179.42</v>
+        <v>271.95</v>
       </c>
       <c r="G16" t="n">
-        <v>73.39</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>180.45</v>
+        <v>278.07</v>
       </c>
       <c r="I16" t="n">
-        <v>225.74</v>
+        <v>344.96</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="M16" t="n">
-        <v>0.62</v>
+        <v>0.09</v>
       </c>
       <c r="N16" t="n">
-        <v>1.07</v>
+        <v>0.54</v>
       </c>
       <c r="O16" t="n">
-        <v>24305000000</v>
+        <v>117009063</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="R16" t="n">
-        <v>4580157423616</v>
+        <v>35564519424</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>45875700</v>
+      </c>
+      <c r="U16" t="n">
+        <v>45875700</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>35036678.2</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>1571180.3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>317.32</v>
+        <v>188.26</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>313.59 - 314.15</t>
+          <t>186.43 - 186.38</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>308</v>
+        <v>183.69</v>
       </c>
       <c r="F17" t="n">
-        <v>305.46</v>
+        <v>174.84</v>
       </c>
       <c r="G17" t="n">
-        <v>37.36</v>
+        <v>78.03</v>
       </c>
       <c r="H17" t="n">
-        <v>308</v>
+        <v>183.69</v>
       </c>
       <c r="I17" t="n">
-        <v>380.78</v>
+        <v>225.91</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="L17" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="M17" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="N17" t="n">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="O17" t="n">
-        <v>5407000000</v>
+        <v>1340771942</v>
       </c>
       <c r="P17" t="n">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
       <c r="R17" t="n">
-        <v>3830634250240</v>
+        <v>252413722624</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>203687213</v>
+      </c>
+      <c r="U17" t="n">
+        <v>203687213</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>123301008.52</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>4116390.65</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1610,193 +1905,240 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>SGI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>119.9</v>
+        <v>89.7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>118.26 - 118.70</t>
+          <t>88.64 - 88.80</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>115.79</v>
+        <v>87.05</v>
       </c>
       <c r="F18" t="n">
-        <v>111.07</v>
+        <v>87.05</v>
       </c>
       <c r="G18" t="n">
-        <v>85.09</v>
+        <v>75.37</v>
       </c>
       <c r="H18" t="n">
-        <v>115.79</v>
+        <v>87.05</v>
       </c>
       <c r="I18" t="n">
-        <v>143.88</v>
+        <v>107.64</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="L18" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
       <c r="M18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="N18" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="O18" t="n">
-        <v>135863661</v>
+        <v>209907662</v>
       </c>
       <c r="P18" t="n">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.47</v>
+        <v>0.75</v>
       </c>
       <c r="R18" t="n">
-        <v>16526072832</v>
+        <v>18828716032</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>26394155</v>
+      </c>
+      <c r="U18" t="n">
+        <v>26394155</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>51057947.59</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="n">
+        <v>1364411.55</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAN</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25.03</v>
+        <v>233.06</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24.68 - 24.78</t>
+          <t>230.44 - 230.73</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24.14</v>
+        <v>226.5</v>
       </c>
       <c r="F19" t="n">
-        <v>23.23</v>
+        <v>222.24</v>
       </c>
       <c r="G19" t="n">
-        <v>84.86</v>
+        <v>54.8</v>
       </c>
       <c r="H19" t="n">
-        <v>24.14</v>
+        <v>226.5</v>
       </c>
       <c r="I19" t="n">
-        <v>30.04</v>
+        <v>279.67</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>19.75</v>
+        <v>0.38</v>
       </c>
       <c r="L19" t="n">
-        <v>22.05</v>
+        <v>0.36</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="O19" t="n">
-        <v>116837366</v>
+        <v>10690216011</v>
       </c>
       <c r="P19" t="n">
-        <v>1.07</v>
+        <v>0.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="R19" t="n">
-        <v>3282775552</v>
+        <v>2491461664768</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="n">
+        <v>35666368.9</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SEI</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52.9</v>
+        <v>267.26</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>50.92 - 52.37</t>
+          <t>264.81 - 264.59</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>47.95</v>
+        <v>261.13</v>
       </c>
       <c r="F20" t="n">
-        <v>47.65</v>
+        <v>261.13</v>
       </c>
       <c r="G20" t="n">
-        <v>82.95999999999999</v>
+        <v>30.95</v>
       </c>
       <c r="H20" t="n">
-        <v>47.95</v>
+        <v>261.13</v>
       </c>
       <c r="I20" t="n">
-        <v>63.48</v>
+        <v>320.71</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.91</v>
+      </c>
       <c r="M20" t="n">
-        <v>1.22</v>
+        <v>0.08</v>
       </c>
       <c r="N20" t="n">
-        <v>0.11</v>
+        <v>1.71</v>
       </c>
       <c r="O20" t="n">
-        <v>48802385</v>
+        <v>14776353000</v>
       </c>
       <c r="P20" t="n">
-        <v>1.2</v>
+        <v>0.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>-2.34</v>
+        <v>0.71</v>
       </c>
       <c r="R20" t="n">
-        <v>3797242880</v>
+        <v>3966242652160</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Energy</t>
-        </is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>4208530</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4208530</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>-15315799.48</v>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>40716893.3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1807,63 +2149,76 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>COMP</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>128.53</v>
+        <v>10.85</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>126.91 - 127.24</t>
+          <t>10.63 - 10.74</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>124.48</v>
+        <v>10.29</v>
       </c>
       <c r="F21" t="n">
-        <v>122.2</v>
+        <v>10.29</v>
       </c>
       <c r="G21" t="n">
-        <v>82.39</v>
+        <v>84.31</v>
       </c>
       <c r="H21" t="n">
-        <v>124.48</v>
+        <v>10.29</v>
       </c>
       <c r="I21" t="n">
-        <v>154.24</v>
+        <v>13.02</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.62</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="N21" t="n">
-        <v>0.16</v>
+        <v>-0.09</v>
       </c>
       <c r="O21" t="n">
-        <v>204649752</v>
+        <v>552113490</v>
       </c>
       <c r="P21" t="n">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.72</v>
+        <v>1.07</v>
       </c>
       <c r="R21" t="n">
-        <v>26606417920</v>
+        <v>6100259840</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
+          <t>Real Estate</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>111243597</v>
+      </c>
+      <c r="U21" t="n">
+        <v>111243597</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>121268702.49</v>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>9191124.75</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
